--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1346,10 +1358,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1393,28 +1405,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1439,28 +1451,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1635,10 +1647,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1682,28 +1694,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1728,28 +1740,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1924,10 +1936,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1971,28 +1983,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2017,28 +2029,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2271,10 +2283,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2318,28 +2330,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2364,28 +2376,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2676,10 +2688,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2723,28 +2735,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2769,28 +2781,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3255,10 +3267,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3302,28 +3314,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3348,28 +3360,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3834,10 +3846,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3881,28 +3893,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3927,28 +3939,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4152,10 +4164,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4199,28 +4211,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4245,28 +4257,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4511,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
